--- a/data/trans_bre/P07B_R2_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R2_2023-Dificultad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.136376508674065</v>
+        <v>-7.357956261918376</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.07999597524223434</v>
+        <v>-0.0822976415696433</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4135624635104702</v>
+        <v>0.54923744806969</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.004701327962841657</v>
+        <v>0.006182704052498138</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-3.065685949951635</v>
+        <v>-3.065685949951646</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.03271898565561634</v>
+        <v>-0.03271898565561647</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.238376970177366</v>
+        <v>-5.313546006475073</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05562831698747046</v>
+        <v>-0.0558355180404676</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.797746279788058</v>
+        <v>-0.7121142926319949</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.0088882244906884</v>
+        <v>-0.007706343770368872</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-3.994692490934515</v>
+        <v>-3.994692490934504</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.04173361109301975</v>
+        <v>-0.04173361109301963</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.918323661336144</v>
+        <v>-6.120477617407347</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.06149741681594573</v>
+        <v>-0.06315875846877843</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.965910027381674</v>
+        <v>-2.24695369579389</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-0.02090397261906913</v>
+        <v>-0.02374210702019245</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.903346647713344</v>
+        <v>-4.03150707171787</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04079544559988517</v>
+        <v>-0.0419810792062742</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0675880420784669</v>
+        <v>0.06317143556488483</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.0005803707240726161</v>
+        <v>0.0006387534090652303</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-3.393976235352614</v>
+        <v>-3.393976235352603</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.03616731295330616</v>
+        <v>-0.03616731295330605</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.627400144758574</v>
+        <v>-4.529703448075971</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.04895222095291163</v>
+        <v>-0.04791923794535416</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.189484889586312</v>
+        <v>-2.16949190093083</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.02347984367692337</v>
+        <v>-0.02313325624482207</v>
       </c>
     </row>
     <row r="19">
